--- a/ontology/enhancement/KeyPerformanceIndicator.xlsx
+++ b/ontology/enhancement/KeyPerformanceIndicator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Nextcloud\Beegroup\Projects\Desenvolupaments_TIC_BIGG-ENTRACK\5-User_Interfaces\Traducciones\20230607\enhancement_2\enhancement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eloigabal/Developement/CIMNE/bigg_entrack/ontology/enhancement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159F610B-F4BC-44A7-9703-4CE3728749A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE41DDC-1CC7-C14C-A40E-FE3D33CE34C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26670" yWindow="2400" windowWidth="23010" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="246">
   <si>
     <t>uri</t>
   </si>
@@ -370,9 +370,6 @@
     <t>La Intensitat d'Estalvi de Consum Energètic és un indicador de l'estalvi energètic produït en un període de temps.</t>
   </si>
   <si>
-    <t>Energy Use SavingIntensity is an indicator of the energy saving produced on period of time.</t>
-  </si>
-  <si>
     <t>Intensidad de Ahorro de Consumo Energético es un indicador del ahorro energético producido en un periodo de tiempo.</t>
   </si>
   <si>
@@ -578,13 +575,196 @@
   </si>
   <si>
     <t>TAS</t>
+  </si>
+  <si>
+    <t>rdfs:label@bg</t>
+  </si>
+  <si>
+    <t>rdfs:comment@bg</t>
+  </si>
+  <si>
+    <t>bigg:shortName@bg</t>
+  </si>
+  <si>
+    <t>Спестяване на разходи за енергия</t>
+  </si>
+  <si>
+    <t>Интензивност на спестяване на енергийни разходи</t>
+  </si>
+  <si>
+    <t>Енергийни емисии</t>
+  </si>
+  <si>
+    <t>Интензивност на енергийните емисии</t>
+  </si>
+  <si>
+    <t>Спестяване на енергийни емисии</t>
+  </si>
+  <si>
+    <t>Използване на енергия</t>
+  </si>
+  <si>
+    <t>Интензивност на използване на енергия</t>
+  </si>
+  <si>
+    <t>Спестяване на енергия</t>
+  </si>
+  <si>
+    <t>Интензивност на спестяване на енергия</t>
+  </si>
+  <si>
+    <t>Вътрешна норма на възвръщаемост</t>
+  </si>
+  <si>
+    <t>Нетна настояща стойност</t>
+  </si>
+  <si>
+    <t>Коефициент на нетна настояща стойност</t>
+  </si>
+  <si>
+    <t>Нормализирани инвестиционни разходи</t>
+  </si>
+  <si>
+    <t>Индекс на рентабилност</t>
+  </si>
+  <si>
+    <t>Разходи за Енергия</t>
+  </si>
+  <si>
+    <t>Градус-Дни Охлаждане</t>
+  </si>
+  <si>
+    <t>Интензивност на Енергийните Разходи</t>
+  </si>
+  <si>
+    <t>Избегнати разходи</t>
+  </si>
+  <si>
+    <t>Интензивност на спестяване на енергийни емисии</t>
+  </si>
+  <si>
+    <t>Градус-Дни Отопление</t>
+  </si>
+  <si>
+    <t>Време за възвръщане на инвестицията</t>
+  </si>
+  <si>
+    <t>Разходите за енергия за представения период</t>
+  </si>
+  <si>
+    <t>CO2 еквивалентни емисии, генерирани от потреблението на енергия за определен период от време.</t>
+  </si>
+  <si>
+    <t>Общо количество избегнати емисии на CO2 от консумация на енергия за определен период от време.</t>
+  </si>
+  <si>
+    <t>Общо количество консумирана енергия за период от време.</t>
+  </si>
+  <si>
+    <t>Спестяването на енергия е общото количество енергия, което е избегнато за определен период от време.</t>
+  </si>
+  <si>
+    <t>Вътрешната норма на възвръщаемост е сконтов процент, който прави нетната настояща стойност (NPV) на всички парични потоци равна на нула при анализ на дисконтирания паричен поток.</t>
+  </si>
+  <si>
+    <t>Нетната настояща стойност е разликата между настоящата стойност на входящите парични потоци и настоящата стойност на изходящите парични потоци за определен период от време и се използва за изчисляване на общата настояща стойност на бъдещ поток от плащания.</t>
+  </si>
+  <si>
+    <t>Количеството на нетната настояща стойност е съотношението между нетната настояща стойност (NPV) и направената инвестиция. Той показва каква отстъпка се генерира срещу единица инвестиция.</t>
+  </si>
+  <si>
+    <t>Нормализираната инвестиционна цена е показател за цената на мярката за енергийна ефективност на квадратен метър застроена площ.</t>
+  </si>
+  <si>
+    <t>Индексът на доходност е съотношението между настоящата стойност на очакваните бъдещи парични потоци и първоначалната сума, инвестирана в проекта.</t>
+  </si>
+  <si>
+    <t>Избегнатият разход е средният разход в пари за kWh спестена енергия по време на живота на EEM.</t>
+  </si>
+  <si>
+    <t>Градус-дните за охлаждане  са разликата между средната дневна температура и температура над която е необходимо охлаждане за поддържане на комфорта. Ако средната температура е над 22°С, ние изваждаме 22 от средната стойност и резултатът е  градус-дни на охлаждане.</t>
+  </si>
+  <si>
+    <t>Градус-дните за отопление са разликата между средната дневна температура и температура под която е необходимо отопление за поддържане на комфорта. Ако средната температура е над 15,5°С, ние изваждаме  15,5 от средната стойност и резултатът е  градус-дни на отопление.</t>
+  </si>
+  <si>
+    <t>Интензивността на енергийните разходи е показател за разходите за използване на енергия от една сграда. Изразява се в пари на квадратен метър годишно.</t>
+  </si>
+  <si>
+    <t>Спестените  разходи за енергия за определен период от време</t>
+  </si>
+  <si>
+    <t>Интензивността на енергийните емисии е индикатор за нивото на емисиите на CO2, свързани с използването на енергия в сградата. Изразява се като gCO2 на квадратен метър за период от време.</t>
+  </si>
+  <si>
+    <t>Интензивността на спестяване на енергийни разходи на квадратен метър от сградната площ за определен период от време.</t>
+  </si>
+  <si>
+    <t>Интензивносттс на спестяване на енергийни емисии е индикатор за броя на CO2 еквивалентните емисии от потреблението на енергия, които са били избегнати за определен период от време.</t>
+  </si>
+  <si>
+    <t>Интензивносттс на използване на енергия е индикатор за енергийната ефективност на дизайна и/или експлоатацията на сградата. Изразява се като енергия на квадратен метър за период от време.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Индикатор за енергоспестяването, произведено за период от време.</t>
+  </si>
+  <si>
+    <t>Energy Use Saving Intensity is an indicator of the energy saving produced on period of time.</t>
+  </si>
+  <si>
+    <t>Броят години за които парите спестени след обновяването ще покрият инвестицията.</t>
+  </si>
+  <si>
+    <t>EUI = \frac{Total\ energy\ use\ [kWh/year]}{ Gross\ floor\ area [m^2]}</t>
+  </si>
+  <si>
+    <t>ECI = \frac{\sum_{i=1}^{n}Energy\ cost\ source\[i] [€/year]}{ Gross\ floor\ area [m^2]}</t>
+  </si>
+  <si>
+    <t>EEI = \frac{\sum_{i=1}^{n}Energy\ use\ source\ _{i} [kWh/year]  \times K_{i}^{CO2eq} [gCO2/kWh] }{ Gross\ floor\ area [m^2]}</t>
+  </si>
+  <si>
+    <t>EUSI = \frac{Energy\ use\ saving\ source\ [kWh/year]}{ Gross\ floor\ area [m^2] \times Fraction\ of\ affectation}</t>
+  </si>
+  <si>
+    <t>ECSI = \frac{Cost\ saving\ EEM\ [kWh/year]}{ Gross\ floor\ area [m^2] \times Fraction\ of\ affectation}</t>
+  </si>
+  <si>
+    <t>EESI = \frac{Emissions\ saving\ EEM\ [gcCO2/year]}{ Gross\ floor\ area [m^2] \times Fraction\ of\ affectation}</t>
+  </si>
+  <si>
+    <t>NIC = \frac{EEM\ Investment\ [€]}{ Gross\ floor\ area [m^2] \times Fraction\ of\ affectation}</t>
+  </si>
+  <si>
+    <t>AC= \frac{EEM\ Investment\ [\epsilon]}{ Energy\  use\ saving\ EEM [kWh/year] \times EEM \ Lifespan [year]}</t>
+  </si>
+  <si>
+    <t>SP= \frac{EEM\ Investment\ [\epsilon]}{ Cost\ saving\ EEM [\epsilon/year]}</t>
+  </si>
+  <si>
+    <t>NPV= \sum_{t=i}^{EEM Lifespan}\frac{ Cost\ saving\ EEM_{t}}{(1 + Discount\ rate)^{t}} - EEM\ Investment</t>
+  </si>
+  <si>
+    <t>PI=\frac{ \sum_{t=i}^{EEM Lifespan}\frac{ Cos\ saving\ EEM_{t}}{(1 + Discount\ rate)^{t}}}{EEM\ Investment}</t>
+  </si>
+  <si>
+    <t>NPVq=\frac{ \sum_{t=i}^{EEM Lifespan}\frac{ Cos\ saving\ EEM_{t}}{(1 + Discount\ rate)^{t}}- EEM\ Investment}{EEM\ Investment}</t>
+  </si>
+  <si>
+    <t>\sum_{t=i}^{EEM Lifespan}\frac{ Cos\ saving\ EEM_{t}}{(1 + IRR)^{t}}- EEM\ Investment=0</t>
+  </si>
+  <si>
+    <t>EES = \sum_{i=1}^{n}Energy\ use\ source\ _{i} [kWh/year]  \times K_{i}^{CO2eq} [gCO2/kWh]</t>
+  </si>
+  <si>
+    <t>bigg:formula</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,6 +776,15 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -630,16 +819,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -940,27 +1135,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="199" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="194.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="206.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="199" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="194.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="206.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="206.33203125" customWidth="1"/>
+    <col min="10" max="10" width="127" customWidth="1"/>
+    <col min="11" max="11" width="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -974,77 +1173,105 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N1" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="N2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" t="s">
         <v>182</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>183</v>
       </c>
-      <c r="G3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1057,26 +1284,33 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1089,498 +1323,653 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>37</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" t="s">
         <v>38</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>39</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>44</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" t="s">
         <v>46</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>47</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K7" t="s">
         <v>54</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>55</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>60</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>61</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" t="s">
         <v>62</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>63</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>67</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>68</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>69</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K9" t="s">
         <v>70</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>71</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>75</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>76</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>77</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K10" t="s">
         <v>78</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>79</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>83</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>84</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>85</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K11" t="s">
         <v>86</v>
       </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>87</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>89</v>
       </c>
       <c r="C12" t="s">
         <v>90</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>91</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>92</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>93</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" t="s">
         <v>94</v>
       </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>95</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>97</v>
       </c>
       <c r="C13" t="s">
         <v>98</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>99</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>100</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>101</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K13" t="s">
         <v>102</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>103</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>105</v>
       </c>
       <c r="C14" t="s">
         <v>106</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>107</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>108</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>109</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" t="s">
         <v>110</v>
       </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>111</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>113</v>
       </c>
       <c r="C15" t="s">
         <v>114</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>115</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" t="s">
         <v>116</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K15" t="s">
         <v>117</v>
       </c>
-      <c r="H15" t="s">
+      <c r="L15" t="s">
         <v>118</v>
       </c>
-      <c r="I15" t="s">
+      <c r="M15" t="s">
         <v>119</v>
       </c>
-      <c r="J15" t="s">
+      <c r="N15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
         <v>121</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" t="s">
         <v>122</v>
       </c>
-      <c r="E16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" t="s">
-        <v>180</v>
-      </c>
-      <c r="G16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="L16" t="s">
         <v>123</v>
       </c>
-      <c r="I16" t="s">
+      <c r="M16" t="s">
         <v>124</v>
       </c>
-      <c r="J16" t="s">
+      <c r="N16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>126</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>127</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" t="s">
         <v>128</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>129</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>130</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K17" t="s">
         <v>131</v>
       </c>
-      <c r="H17" t="s">
+      <c r="L17" t="s">
         <v>132</v>
       </c>
-      <c r="I17" t="s">
+      <c r="M17" t="s">
         <v>133</v>
       </c>
-      <c r="J17" t="s">
+      <c r="N17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>135</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>136</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" t="s">
         <v>137</v>
       </c>
-      <c r="D18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>138</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>139</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K18" t="s">
         <v>140</v>
       </c>
-      <c r="H18" t="s">
+      <c r="L18" t="s">
         <v>141</v>
       </c>
-      <c r="I18" t="s">
+      <c r="M18" t="s">
         <v>142</v>
       </c>
-      <c r="J18" t="s">
+      <c r="N18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>144</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>145</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" t="s">
         <v>146</v>
       </c>
-      <c r="D19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>147</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>148</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K19" t="s">
         <v>149</v>
       </c>
-      <c r="H19" t="s">
+      <c r="L19" t="s">
         <v>150</v>
       </c>
-      <c r="I19" t="s">
+      <c r="M19" t="s">
         <v>151</v>
       </c>
-      <c r="J19" t="s">
+      <c r="N19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" t="s">
         <v>153</v>
       </c>
-      <c r="B20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
         <v>154</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>155</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>156</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K20" t="s">
         <v>157</v>
       </c>
-      <c r="H20" t="s">
+      <c r="L20" t="s">
         <v>158</v>
       </c>
-      <c r="I20" t="s">
+      <c r="M20" t="s">
         <v>159</v>
       </c>
-      <c r="J20" t="s">
+      <c r="N20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>161</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>162</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" t="s">
         <v>163</v>
       </c>
-      <c r="D21" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>164</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>165</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K21" t="s">
         <v>166</v>
       </c>
-      <c r="H21" t="s">
+      <c r="L21" t="s">
         <v>167</v>
       </c>
-      <c r="I21" t="s">
+      <c r="M21" t="s">
         <v>168</v>
       </c>
-      <c r="J21" t="s">
+      <c r="N21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" t="s">
         <v>170</v>
-      </c>
-      <c r="B22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" t="s">
-        <v>171</v>
-      </c>
-      <c r="E22" t="s">
-        <v>177</v>
       </c>
       <c r="F22" t="s">
         <v>176</v>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" t="s">
         <v>172</v>
       </c>
-      <c r="I22" t="s">
+      <c r="M22" t="s">
         <v>173</v>
       </c>
-      <c r="J22" t="s">
-        <v>174</v>
+      <c r="N22" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" location="KPI-CoolingDegreeDays" xr:uid="{4B63B6F5-A89D-B148-A342-0A1509F91A46}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>